--- a/Docs/4조 테이블 정의서.xlsx
+++ b/Docs/4조 테이블 정의서.xlsx
@@ -85,10 +85,10 @@
     <t>비고</t>
   </si>
   <si>
-    <t>date_id</t>
+    <t>ob_date</t>
   </si>
   <si>
-    <t>일시</t>
+    <t>기상관측 날짜</t>
   </si>
   <si>
     <t>DateTime</t>
@@ -97,10 +97,10 @@
     <t>N</t>
   </si>
   <si>
-    <t>area</t>
+    <t>ob_area</t>
   </si>
   <si>
-    <t>지점</t>
+    <t>기상관측 지점</t>
   </si>
   <si>
     <t>String</t>
